--- a/simulations/cleaned_inclusion_exclusion/Radjenovic_2013 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Radjenovic_2013 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>90</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,10 +444,10 @@
         <v>402</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -466,10 +466,10 @@
         <v>468</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>492</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,10 +510,10 @@
         <v>544</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -532,10 +532,10 @@
         <v>590</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -554,10 +554,10 @@
         <v>626</v>
       </c>
       <c r="C15">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D15">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -587,10 +587,10 @@
         <v>735</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -598,10 +598,10 @@
         <v>736</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -620,10 +620,10 @@
         <v>755</v>
       </c>
       <c r="C21">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D21">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -642,10 +642,10 @@
         <v>760</v>
       </c>
       <c r="C23">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D23">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -664,10 +664,10 @@
         <v>1397</v>
       </c>
       <c r="C25">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="D25">
-        <v>334</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -686,10 +686,10 @@
         <v>1407</v>
       </c>
       <c r="C27">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D27">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -708,10 +708,10 @@
         <v>1891</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -730,10 +730,10 @@
         <v>1894</v>
       </c>
       <c r="C31">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D31">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -752,10 +752,10 @@
         <v>1962</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -774,10 +774,10 @@
         <v>2013</v>
       </c>
       <c r="C35">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D35">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -796,10 +796,10 @@
         <v>2258</v>
       </c>
       <c r="C37">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D37">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -807,10 +807,10 @@
         <v>2315</v>
       </c>
       <c r="C38">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="D38">
-        <v>1309</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -829,10 +829,10 @@
         <v>2380</v>
       </c>
       <c r="C40">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -851,10 +851,10 @@
         <v>2401</v>
       </c>
       <c r="C42">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D42">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -873,10 +873,10 @@
         <v>2478</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -895,10 +895,10 @@
         <v>2644</v>
       </c>
       <c r="C46">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D46">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -917,10 +917,10 @@
         <v>2773</v>
       </c>
       <c r="C48">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D48">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -939,10 +939,10 @@
         <v>3148</v>
       </c>
       <c r="C50">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D50">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -961,10 +961,10 @@
         <v>3192</v>
       </c>
       <c r="C52">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -983,10 +983,10 @@
         <v>3237</v>
       </c>
       <c r="C54">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="D54">
-        <v>333</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1005,10 +1005,10 @@
         <v>3383</v>
       </c>
       <c r="C56">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D56">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1027,10 +1027,10 @@
         <v>3536</v>
       </c>
       <c r="C58">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D58">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1049,10 +1049,10 @@
         <v>3628</v>
       </c>
       <c r="C60">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D60">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1093,10 +1093,10 @@
         <v>4064</v>
       </c>
       <c r="C64">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1115,10 +1115,10 @@
         <v>4249</v>
       </c>
       <c r="C66">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D66">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1137,10 +1137,10 @@
         <v>4429</v>
       </c>
       <c r="C68">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D68">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1159,10 +1159,10 @@
         <v>4600</v>
       </c>
       <c r="C70">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D70">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1181,10 +1181,10 @@
         <v>4605</v>
       </c>
       <c r="C72">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D72">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1203,10 +1203,10 @@
         <v>4837</v>
       </c>
       <c r="C74">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="D74">
-        <v>412</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1225,10 +1225,10 @@
         <v>4853</v>
       </c>
       <c r="C76">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D76">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1247,10 +1247,10 @@
         <v>4936</v>
       </c>
       <c r="C78">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D78">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1269,10 +1269,10 @@
         <v>5002</v>
       </c>
       <c r="C80">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D80">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1291,10 +1291,10 @@
         <v>5046</v>
       </c>
       <c r="C82">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D82">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1313,10 +1313,10 @@
         <v>5159</v>
       </c>
       <c r="C84">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D84">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1335,10 +1335,10 @@
         <v>5345</v>
       </c>
       <c r="C86">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D86">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1357,10 +1357,10 @@
         <v>5399</v>
       </c>
       <c r="C88">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D88">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1379,10 +1379,10 @@
         <v>5508</v>
       </c>
       <c r="C90">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D90">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1401,10 +1401,10 @@
         <v>5671</v>
       </c>
       <c r="C92">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D92">
-        <v>509</v>
+        <v>495</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1423,10 +1423,10 @@
         <v>5762</v>
       </c>
       <c r="C94">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D94">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1445,10 +1445,10 @@
         <v>5807</v>
       </c>
       <c r="C96">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="D96">
-        <v>285</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1459,7 +1459,7 @@
         <v>171.6170212765958</v>
       </c>
       <c r="C97">
-        <v>176.125</v>
+        <v>172.2083333333333</v>
       </c>
     </row>
   </sheetData>
